--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111153887</v>
       </c>
       <c r="B2" t="n">
-        <v>89317</v>
+        <v>89330</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
